--- a/设计文档/RY-T01单片机引脚定义.xlsx
+++ b/设计文档/RY-T01单片机引脚定义.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
   <si>
     <r>
       <rPr>
@@ -239,12 +239,30 @@
     <t>IIC_SDA</t>
   </si>
   <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>GPIO_Input</t>
+  </si>
+  <si>
+    <t>LDAC</t>
+  </si>
+  <si>
+    <t>MCP4728-LDAC</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>RDY</t>
+  </si>
+  <si>
+    <t>MCP4728-RDY</t>
+  </si>
+  <si>
     <t>PB12</t>
   </si>
   <si>
-    <t>GPIO_Input</t>
-  </si>
-  <si>
     <t>KY0</t>
   </si>
   <si>
@@ -446,10 +464,16 @@
     <t>WR_LCD</t>
   </si>
   <si>
+    <t>并口的写控制脚或者 4 线串口的寄存器/数据选择, 不用时接 IOVCC</t>
+  </si>
+  <si>
     <t>PB13</t>
   </si>
   <si>
     <t>RD_LCD</t>
+  </si>
+  <si>
+    <t>并口的读控制脚,不用时接 IOVCC</t>
   </si>
   <si>
     <t>PB14</t>
@@ -1407,12 +1431,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1422,6 +1440,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1439,9 +1466,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1553,8 +1577,8 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>18415</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:colOff>627380</xdr:colOff>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>62230</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
@@ -1571,7 +1595,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="8068310" y="1270"/>
-              <a:ext cx="0" cy="5257800"/>
+              <a:ext cx="0" cy="5699760"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2835,10 +2859,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2902,12 +2926,12 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.4" spans="1:5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="17.4" spans="1:5">
@@ -2917,7 +2941,7 @@
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -2932,7 +2956,7 @@
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="19"/>
@@ -2945,7 +2969,7 @@
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -2960,7 +2984,7 @@
       <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="19"/>
@@ -2973,13 +2997,13 @@
       <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="17.4" spans="1:5">
       <c r="A11" s="14" t="s">
@@ -2988,11 +3012,11 @@
       <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="17.4" spans="1:5">
       <c r="A12" s="14" t="s">
@@ -3001,13 +3025,13 @@
       <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="17.4" spans="1:5">
       <c r="A13" s="14" t="s">
@@ -3016,176 +3040,172 @@
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="14" s="1" customFormat="1" ht="17.4" spans="1:5">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A15" s="14" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>43</v>
-      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="17.4" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="17.4" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="17.4" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="25" t="s">
+    </row>
+    <row r="19" s="2" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A19" s="14" t="s">
+      <c r="D19" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="E19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="10"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="17.4" spans="1:5">
       <c r="A20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="17.4" spans="1:5">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="17.4" spans="1:5">
       <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A22" s="14" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A22" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A23" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A23" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="17.4" spans="1:5">
@@ -3198,211 +3218,249 @@
       <c r="C24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="20.4" spans="1:5">
-      <c r="A25" s="20" t="s">
+      <c r="E24" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A25" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="17.4" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="B26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A27" s="14" t="s">
+      <c r="D26" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="E26" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20.4" spans="1:5">
+      <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="B28" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="20.4" spans="1:5">
-      <c r="A28" s="20" t="s">
+      <c r="C28" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="17.4" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="21" t="s">
         <v>88</v>
       </c>
+      <c r="D29" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="14" t="s">
+    <row r="30" s="1" customFormat="1" ht="20.4" spans="1:5">
+      <c r="A30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>92</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="17.4" spans="1:5">
       <c r="A31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="D31" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="31"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="17.4" spans="1:5">
       <c r="A32" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="C32" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="31"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A34" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A35" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A34" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="C35" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="52.2" spans="1:5">
+      <c r="A36" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A35" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="27" t="s">
+      <c r="C36" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="34.8" spans="1:5">
+      <c r="A37" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A36" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="27" t="s">
+      <c r="C37" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A38" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="20.4" spans="1:5">
-      <c r="A37" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A38" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>113</v>
+      <c r="C38" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="E38" s="10"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="20.4" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="17.4" spans="1:5">
+      <c r="A40" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D32:D34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3422,8 +3480,8 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>18415</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:colOff>627380</xdr:colOff>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>62230</xdr:rowOff>
               </to>
             </anchor>

--- a/设计文档/RY-T01单片机引脚定义.xlsx
+++ b/设计文档/RY-T01单片机引脚定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324" tabRatio="933" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12465" tabRatio="933" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
   <si>
     <r>
       <rPr>
@@ -491,13 +491,16 @@
     <t>PA1</t>
   </si>
   <si>
-    <t>脉冲计数</t>
+    <t>TIM2-CH2</t>
   </si>
   <si>
     <t>OUT1</t>
   </si>
   <si>
     <t>湿度传感器</t>
+  </si>
+  <si>
+    <t>外部脉冲计数</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1442,12 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1594,8 +1591,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8068310" y="1270"/>
-              <a:ext cx="0" cy="5699760"/>
+              <a:off x="8895715" y="1270"/>
+              <a:ext cx="0" cy="6071235"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1618,7 +1615,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1901,949 +1898,949 @@
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:16">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="41"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="42"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="42"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="42"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="42"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="42"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="42"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="42"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="42"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="42"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="42"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="42"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="42"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="40"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="42"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="42"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="40"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="42"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="40"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="42"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="40"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="42"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="42"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="42"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="40"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="42"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="42"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="40"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="42"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="42"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="43"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="2:16">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="2:16">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2861,21 +2858,21 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.3796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3796296296296" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.1111111111111" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.0925925925926" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.1083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.0916666666667" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2890,7 +2887,7 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.4" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2899,7 +2896,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2914,7 +2911,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -2925,7 +2922,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.4" spans="1:5">
+    <row r="5" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -2934,7 +2931,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="6" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
@@ -2949,7 +2946,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="7" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -2962,7 +2959,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="8" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
@@ -2977,7 +2974,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="9" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
@@ -2990,7 +2987,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="10" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
@@ -3005,7 +3002,7 @@
       </c>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="11" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A11" s="14" t="s">
         <v>28</v>
       </c>
@@ -3018,7 +3015,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="12" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -3033,7 +3030,7 @@
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="13" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
@@ -3046,7 +3043,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="14" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -3056,27 +3053,27 @@
       <c r="C14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="15" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="16" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
@@ -3086,14 +3083,14 @@
       <c r="C16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="17" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
@@ -3103,14 +3100,14 @@
       <c r="C17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="18" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A18" s="14" t="s">
         <v>50</v>
       </c>
@@ -3120,14 +3117,14 @@
       <c r="C18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="19" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A19" s="14" t="s">
         <v>54</v>
       </c>
@@ -3137,14 +3134,14 @@
       <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="20" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A20" s="14" t="s">
         <v>58</v>
       </c>
@@ -3154,14 +3151,14 @@
       <c r="C20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
@@ -3171,27 +3168,27 @@
       <c r="C21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="22" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A22" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="17.4" spans="1:5">
+    <row r="23" s="2" customFormat="1" ht="18.75" spans="1:5">
       <c r="A23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3201,14 +3198,14 @@
       <c r="C23" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="24" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A24" s="14" t="s">
         <v>72</v>
       </c>
@@ -3218,14 +3215,14 @@
       <c r="C24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="25" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A25" s="14" t="s">
         <v>75</v>
       </c>
@@ -3235,14 +3232,14 @@
       <c r="C25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="26" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A26" s="14" t="s">
         <v>78</v>
       </c>
@@ -3252,14 +3249,14 @@
       <c r="C26" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.4" spans="1:5">
+    <row r="27" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
@@ -3268,37 +3265,37 @@
       <c r="D27" s="20"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="28" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A28" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="29" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>89</v>
       </c>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.4" spans="1:5">
+    <row r="30" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A30" s="11" t="s">
         <v>90</v>
       </c>
@@ -3307,7 +3304,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="31" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A31" s="14" t="s">
         <v>91</v>
       </c>
@@ -3317,12 +3314,12 @@
       <c r="C31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
         <v>94</v>
       </c>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="32" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A32" s="14" t="s">
         <v>95</v>
       </c>
@@ -3332,98 +3329,98 @@
       <c r="C32" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>98</v>
       </c>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="33" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A33" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="34" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A34" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A35" s="28" t="s">
+    <row r="35" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A35" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>107</v>
       </c>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="52.2" spans="1:5">
-      <c r="A36" s="28" t="s">
+    <row r="36" s="1" customFormat="1" ht="56.25" spans="1:5">
+      <c r="A36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>110</v>
       </c>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="34.8" spans="1:5">
-      <c r="A37" s="28" t="s">
+    <row r="37" s="1" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A37" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>113</v>
       </c>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="17.4" spans="1:5">
-      <c r="A38" s="28" t="s">
+    <row r="38" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A38" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="30" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.4" spans="1:5">
+    <row r="39" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A39" s="11" t="s">
         <v>117</v>
       </c>
@@ -3432,20 +3429,22 @@
       <c r="D39" s="20"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="40" s="1" customFormat="1" ht="18.75" spans="1:5">
       <c r="A40" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/设计文档/RY-T01单片机引脚定义.xlsx
+++ b/设计文档/RY-T01单片机引脚定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12465" tabRatio="933" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9324" tabRatio="933" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
   <si>
     <r>
       <rPr>
@@ -167,12 +167,24 @@
     <t>通讯</t>
   </si>
   <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
     <t>PA3</t>
   </si>
   <si>
     <t>USART2_RX</t>
   </si>
   <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
     <t>GPIO</t>
   </si>
   <si>
@@ -203,12 +215,18 @@
     <t>SM9541-040C-D U13</t>
   </si>
   <si>
+    <t>PC12</t>
+  </si>
+  <si>
     <t>PB8</t>
   </si>
   <si>
     <t>SDA2</t>
   </si>
   <si>
+    <t>PC11</t>
+  </si>
+  <si>
     <t>PB10</t>
   </si>
   <si>
@@ -272,6 +290,9 @@
     <t>上</t>
   </si>
   <si>
+    <t>PA12</t>
+  </si>
+  <si>
     <t>PC10</t>
   </si>
   <si>
@@ -284,9 +305,6 @@
     <t>下</t>
   </si>
   <si>
-    <t>PC11</t>
-  </si>
-  <si>
     <t>KY2</t>
   </si>
   <si>
@@ -296,9 +314,6 @@
     <t>右</t>
   </si>
   <si>
-    <t>PC12</t>
-  </si>
-  <si>
     <t>KY3</t>
   </si>
   <si>
@@ -320,6 +335,9 @@
     <t>返回</t>
   </si>
   <si>
+    <t>PC15</t>
+  </si>
+  <si>
     <t>PA8</t>
   </si>
   <si>
@@ -338,6 +356,9 @@
     <t>运行指示灯</t>
   </si>
   <si>
+    <t>PC6</t>
+  </si>
+  <si>
     <t>PC1</t>
   </si>
   <si>
@@ -368,6 +389,9 @@
     <t>电磁阀3</t>
   </si>
   <si>
+    <t>PB13</t>
+  </si>
+  <si>
     <t>PC5</t>
   </si>
   <si>
@@ -377,6 +401,9 @@
     <t>电磁阀4</t>
   </si>
   <si>
+    <t>PB14</t>
+  </si>
+  <si>
     <t>ADC</t>
   </si>
   <si>
@@ -392,6 +419,9 @@
     <t>PT100温度测量</t>
   </si>
   <si>
+    <t>ADC123_IN2</t>
+  </si>
+  <si>
     <t>PB0</t>
   </si>
   <si>
@@ -404,6 +434,12 @@
     <t>MPXHZ6115AC6反吹气压</t>
   </si>
   <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>ADC12_IN9</t>
+  </si>
+  <si>
     <t>SPI</t>
   </si>
   <si>
@@ -449,34 +485,22 @@
     <t>SPI_SDI_LCD</t>
   </si>
   <si>
-    <t>PA12</t>
-  </si>
-  <si>
     <t>LCD_CTL</t>
   </si>
   <si>
     <t>LCD 背光</t>
   </si>
   <si>
-    <t>PB1</t>
-  </si>
-  <si>
     <t>WR_LCD</t>
   </si>
   <si>
     <t>并口的写控制脚或者 4 线串口的寄存器/数据选择, 不用时接 IOVCC</t>
   </si>
   <si>
-    <t>PB13</t>
-  </si>
-  <si>
     <t>RD_LCD</t>
   </si>
   <si>
     <t>并口的读控制脚,不用时接 IOVCC</t>
-  </si>
-  <si>
-    <t>PB14</t>
   </si>
   <si>
     <t>RESET_LCD</t>
@@ -513,7 +537,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,9 +590,30 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1243,137 +1288,137 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1425,6 +1470,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,6 +1482,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1452,22 +1503,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1591,8 +1675,49 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8895715" y="1270"/>
-              <a:ext cx="0" cy="6071235"/>
+              <a:off x="8068310" y="1270"/>
+              <a:ext cx="0" cy="5699760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>627380</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1270</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>627380</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>62230</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17504410" y="1270"/>
+              <a:ext cx="0" cy="5699760"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1615,7 +1740,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1898,949 +2023,949 @@
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:16">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="39"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="40"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="53"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="40"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="40"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="40"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="40"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="53"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="40"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="40"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="53"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="40"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="40"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="40"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="53"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="40"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="53"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="40"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="40"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="53"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="40"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="53"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="40"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="40"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="40"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="40"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="40"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="40"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="40"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="40"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="40"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="41"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="54"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
     </row>
     <row r="49" spans="2:16">
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
     </row>
     <row r="50" spans="2:16">
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2856,23 +2981,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.3833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3833333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.1083333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.0916666666667" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3796296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.1111111111111" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.0925925925926" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="26.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6296296296296" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1111111111111" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.0925925925926" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2886,8 +3017,21 @@
         <v>5</v>
       </c>
       <c r="E1" s="10"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20.25" spans="1:5">
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20.4" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2895,8 +3039,15 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="10"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2910,549 +3061,1028 @@
         <v>10</v>
       </c>
       <c r="E3" s="10"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="I3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20.25" spans="1:5">
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.4" spans="1:11">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="10"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A6" s="14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A7" s="14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="C7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20"/>
       <c r="E7" s="10"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A8" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="10"/>
+      <c r="G9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="G10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="G12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="G14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="G15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="H18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="C19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="H19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="17.4" spans="1:11">
       <c r="A20" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="18.75" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A21" s="14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="E21" s="10"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="17.4" spans="1:11">
       <c r="A22" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="18.75" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="G22" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="17.4" spans="1:11">
       <c r="A23" s="14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="18.75" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A24" s="14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="18.75" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A25" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="18.75" spans="1:5">
+        <v>83</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="20.25" spans="1:5">
+      <c r="G26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20.4" spans="1:11">
       <c r="A27" s="11" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="10"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A28" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="E28" s="10"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="E29" s="10"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="20.25" spans="1:5">
+      <c r="G29" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20.4" spans="1:11">
       <c r="A30" s="11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="10"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G30" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A31" s="14" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="E31" s="10"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G31" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A32" s="14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="G32" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="10"/>
+      <c r="G33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A35" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="G35" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="52.2" spans="1:11">
+      <c r="A36" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="G36" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="34.8" spans="1:11">
+      <c r="A37" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="G37" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A33" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A35" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="56.25" spans="1:5">
-      <c r="A36" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A37" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A38" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>116</v>
+      <c r="H37" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A38" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="E38" s="10"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="20.25" spans="1:5">
+      <c r="G38" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="20.4" spans="1:11">
       <c r="A39" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="10"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="18.75" spans="1:5">
+      <c r="G39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A40" s="14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:J2"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="A27:D27"/>
+    <mergeCell ref="G27:J27"/>
     <mergeCell ref="A30:D30"/>
+    <mergeCell ref="G30:J30"/>
     <mergeCell ref="A39:D39"/>
+    <mergeCell ref="G39:J39"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D7"/>
@@ -3460,6 +4090,13 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D32:D34"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J32:J34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3491,6 +4128,31 @@
         <oleObject shapeId="1025" progId="Visio.Drawing.15" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1028" progId="Visio.Drawing.15" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>627380</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>1270</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>627380</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>62230</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1028" progId="Visio.Drawing.15" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/设计文档/RY-T01单片机引脚定义.xlsx
+++ b/设计文档/RY-T01单片机引脚定义.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="136">
   <si>
     <r>
       <rPr>
@@ -404,6 +404,12 @@
     <t>PB14</t>
   </si>
   <si>
+    <t>D_OUT2</t>
+  </si>
+  <si>
+    <t>伴热管</t>
+  </si>
+  <si>
     <t>ADC</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
     <t>ADC123_IN2</t>
   </si>
   <si>
+    <t>PT100环境温度</t>
+  </si>
+  <si>
     <t>PB0</t>
   </si>
   <si>
@@ -432,6 +441,12 @@
   </si>
   <si>
     <t>MPXHZ6115AC6反吹气压</t>
+  </si>
+  <si>
+    <t>ADC123_IN3</t>
+  </si>
+  <si>
+    <t>PT100伴热管温度</t>
   </si>
   <si>
     <t>PB1</t>
@@ -537,7 +552,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -614,6 +629,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1288,137 +1309,137 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="23" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="23" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1545,13 +1566,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2029,943 +2053,943 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:16">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="52"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="53"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="53"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="53"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="53"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="53"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="53"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="53"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="53"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="53"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="53"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="53"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="53"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="54"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="53"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="53"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="53"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="53"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="54"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="53"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="53"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="53"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="53"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="53"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="54"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="53"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="53"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="54"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="54"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="55"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
     </row>
     <row r="49" spans="2:16">
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
     </row>
     <row r="50" spans="2:16">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
     </row>
     <row r="51" spans="2:16">
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
     </row>
     <row r="52" spans="2:16">
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
     </row>
     <row r="58" spans="2:16">
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
-      <c r="P58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
     </row>
     <row r="59" spans="2:16">
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
-      <c r="O62" s="51"/>
-      <c r="P62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2981,10 +3005,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3719,356 +3743,398 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.4" spans="1:11">
-      <c r="A27" s="11" t="s">
+    <row r="27" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="10"/>
-      <c r="G27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="17.4" spans="1:11">
-      <c r="A28" s="14" t="s">
+      <c r="J27" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="K27" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="20.4" spans="1:11">
+      <c r="A28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="10"/>
-      <c r="G28" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>94</v>
-      </c>
+      <c r="G28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="10"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A29" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="E29" s="10"/>
       <c r="G29" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="C30" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="20.4" spans="1:11">
-      <c r="A30" s="11" t="s">
+      <c r="D30" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="22"/>
       <c r="E30" s="10"/>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A31" s="14"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="10"/>
+      <c r="G31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="17.4" spans="1:11">
-      <c r="A31" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="G31" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>106</v>
-      </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="17.4" spans="1:11">
-      <c r="A32" s="14" t="s">
+    <row r="32" s="1" customFormat="1" ht="20.4" spans="1:11">
+      <c r="A32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>110</v>
-      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="10"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>110</v>
-      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A33" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="26"/>
       <c r="E33" s="10"/>
       <c r="G33" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="J33" s="26"/>
       <c r="K33" s="10"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="D34" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="26"/>
       <c r="E34" s="10"/>
       <c r="G34" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="J34" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A35" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="17.4" spans="1:11">
-      <c r="A35" s="28" t="s">
+      <c r="B35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="10"/>
+      <c r="G35" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A36" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="10"/>
+      <c r="G36" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A37" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="G35" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="52.2" spans="1:11">
-      <c r="A36" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="G36" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="34.8" spans="1:11">
-      <c r="A37" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E37" s="10"/>
       <c r="G37" s="33" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>19</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="42" t="s">
         <v>122</v>
       </c>
+      <c r="J37" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="17.4" spans="1:11">
+    <row r="38" s="1" customFormat="1" ht="52.2" spans="1:11">
       <c r="A38" s="28" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="34" t="s">
         <v>124</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="E38" s="10"/>
       <c r="G38" s="33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H38" s="33" t="s">
         <v>19</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="20.4" spans="1:11">
-      <c r="A39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="22"/>
+    <row r="39" s="1" customFormat="1" ht="34.8" spans="1:11">
+      <c r="A39" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>127</v>
+      </c>
       <c r="E39" s="10"/>
-      <c r="G39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="22"/>
+      <c r="G39" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="K39" s="10"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="17.4" spans="1:11">
-      <c r="A40" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="30" t="s">
+      <c r="A40" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="10"/>
+      <c r="G40" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="20.4" spans="1:11">
+      <c r="A41" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="K40" s="10" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="10"/>
+      <c r="G41" s="11" t="s">
         <v>130</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="17.4" spans="1:11">
+      <c r="A42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4077,26 +4143,26 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="G41:J41"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D34:D36"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J34:J36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
